--- a/coding-diary.xlsx
+++ b/coding-diary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\decoder\Desktop\Files\coding-ques-diary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFE6FF0-D67F-4BDB-A1D6-0C2DA3515E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E516D1DF-901B-4C18-B740-E1FD9DE53272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF84B1F4-3D67-403B-A5D0-63669E60A1CF}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="135">
   <si>
     <t>Topic Name</t>
   </si>
@@ -463,6 +463,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/binary-tree-right-side-view/description/</t>
+  </si>
+  <si>
+    <t>Minimum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-depth-of-binary-tree/description/</t>
   </si>
 </sst>
 </file>
@@ -3448,13 +3454,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>481853</xdr:colOff>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>362277</xdr:rowOff>
+          <xdr:rowOff>361950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3464,7 +3470,7 @@
                   <a14:compatExt spid="_x0000_s1077"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E91B090-CB9D-CB57-D795-BD807B02D3BE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3485,23 +3491,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3516,13 +3509,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>571500</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1063353</xdr:colOff>
+          <xdr:colOff>1066800</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>369795</xdr:rowOff>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3532,7 +3525,7 @@
                   <a14:compatExt spid="_x0000_s1078"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06B2CB4F-C8F8-FF19-4DE3-0DE79FA294C3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3553,23 +3546,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3582,15 +3562,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1120588</xdr:colOff>
+          <xdr:colOff>1123950</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>11207</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1602441</xdr:colOff>
+          <xdr:colOff>1600200</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>373483</xdr:rowOff>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3600,7 +3580,7 @@
                   <a14:compatExt spid="_x0000_s1079"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53A885D3-2CC3-E5C7-E412-B2859A1B68B9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3621,23 +3601,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3650,15 +3617,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1680882</xdr:colOff>
+          <xdr:colOff>1676400</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>11206</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>2162735</xdr:colOff>
+          <xdr:colOff>2162175</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>373482</xdr:rowOff>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3668,7 +3635,7 @@
                   <a14:compatExt spid="_x0000_s1080"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC6A6323-0AE5-08F4-918E-DD1C24D5BFB6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3689,23 +3656,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3718,15 +3672,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1120588</xdr:colOff>
+          <xdr:colOff>1123950</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>11207</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1591235</xdr:colOff>
+          <xdr:colOff>1590675</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>365057</xdr:rowOff>
+          <xdr:rowOff>361950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3736,7 +3690,62 @@
                   <a14:compatExt spid="_x0000_s1081"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{098C33F2-0199-7FDF-955F-E572E61C0EAE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>44823</xdr:colOff>
+          <xdr:row>61</xdr:row>
+          <xdr:rowOff>33619</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>491962</xdr:colOff>
+          <xdr:row>61</xdr:row>
+          <xdr:rowOff>369795</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1082" name="Object 58" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1082"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAE28251-E2B6-E7D4-68AE-582490A4DBB5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4104,7 +4113,7 @@
   <dimension ref="A1:F157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -5169,10 +5178,22 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="25"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="16"/>
+      <c r="A62" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62" s="13">
+        <v>45211</v>
+      </c>
       <c r="E62" s="21"/>
+      <c r="F62" s="14" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="63" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="25"/>
@@ -5772,16 +5793,17 @@
     <hyperlink ref="C59" r:id="rId24" xr:uid="{3137CBFA-D009-4E1A-B4E8-67316BA7AB4E}"/>
     <hyperlink ref="C60" r:id="rId25" xr:uid="{16C73CD5-0BD5-43AF-996D-F224A963C687}"/>
     <hyperlink ref="C61" r:id="rId26" xr:uid="{74E4EA44-051A-4059-805A-D11E62405ADC}"/>
+    <hyperlink ref="C62" r:id="rId27" xr:uid="{CAD517C0-42B7-4F5C-B53C-4195263E8038}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId27"/>
-  <drawing r:id="rId28"/>
-  <legacyDrawing r:id="rId29"/>
+  <pageSetup orientation="portrait" r:id="rId28"/>
+  <drawing r:id="rId29"/>
+  <legacyDrawing r:id="rId30"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1025">
-          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId30">
+          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId31">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -5805,8 +5827,8 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1026" r:id="rId31">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId32">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1026" r:id="rId32">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId33">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -5825,13 +5847,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1026" r:id="rId31"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1026" r:id="rId32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="1027">
-          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId33">
+          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId34">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -5855,8 +5877,8 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1028" r:id="rId34">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId35">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1028" r:id="rId35">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId36">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -5875,13 +5897,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1028" r:id="rId34"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1028" r:id="rId35"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId36">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId37">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId37">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId38">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -5900,13 +5922,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId36"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId37"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1030" r:id="rId38">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId39">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1030" r:id="rId39">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId40">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -5925,13 +5947,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1030" r:id="rId38"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1030" r:id="rId39"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1031" r:id="rId40">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId41">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1031" r:id="rId41">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId42">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -5950,13 +5972,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1031" r:id="rId40"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1031" r:id="rId41"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1032" r:id="rId42">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId43">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1032" r:id="rId43">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId44">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -5975,13 +5997,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1032" r:id="rId42"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1032" r:id="rId43"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1033" r:id="rId44">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId45">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1033" r:id="rId45">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId46">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6000,13 +6022,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1033" r:id="rId44"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1033" r:id="rId45"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1034" r:id="rId46">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId47">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1034" r:id="rId47">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId48">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6025,13 +6047,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1034" r:id="rId46"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1034" r:id="rId47"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId48">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId49">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId49">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId50">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6050,13 +6072,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId48"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId49"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1036" r:id="rId50">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId51">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1036" r:id="rId51">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId52">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6075,13 +6097,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1036" r:id="rId50"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1036" r:id="rId51"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1037" r:id="rId52">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId53">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1037" r:id="rId53">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId54">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6100,13 +6122,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1037" r:id="rId52"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1037" r:id="rId53"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1038" r:id="rId54">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId55">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1038" r:id="rId55">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId56">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6125,13 +6147,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1038" r:id="rId54"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1038" r:id="rId55"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1039" r:id="rId56">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId57">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1039" r:id="rId57">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId58">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6150,13 +6172,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1039" r:id="rId56"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1039" r:id="rId57"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1040" r:id="rId58">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId59">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1040" r:id="rId59">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId60">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6175,13 +6197,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1040" r:id="rId58"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1040" r:id="rId59"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1041" r:id="rId60">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId61">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1041" r:id="rId61">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId62">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6200,13 +6222,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1041" r:id="rId60"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1041" r:id="rId61"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1042" r:id="rId62">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId63">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1042" r:id="rId63">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId64">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6225,13 +6247,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1042" r:id="rId62"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1042" r:id="rId63"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1043" r:id="rId64">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId65">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1043" r:id="rId65">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId66">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6250,13 +6272,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1043" r:id="rId64"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1043" r:id="rId65"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1044" r:id="rId66">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId67">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1044" r:id="rId67">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId68">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6275,13 +6297,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1044" r:id="rId66"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1044" r:id="rId67"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1045" r:id="rId68">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId69">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1045" r:id="rId69">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId70">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6300,13 +6322,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1045" r:id="rId68"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1045" r:id="rId69"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1046" r:id="rId70">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId71">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1046" r:id="rId71">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId72">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6325,13 +6347,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1046" r:id="rId70"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1046" r:id="rId71"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1047" r:id="rId72">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId73">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1047" r:id="rId73">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId74">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6350,13 +6372,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1047" r:id="rId72"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1047" r:id="rId73"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1048" r:id="rId74">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId75">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1048" r:id="rId75">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId76">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6375,13 +6397,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1048" r:id="rId74"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1048" r:id="rId75"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1049" r:id="rId76">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId77">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1049" r:id="rId77">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId78">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6400,13 +6422,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1049" r:id="rId76"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1049" r:id="rId77"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1050" r:id="rId78">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId79">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1050" r:id="rId79">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId80">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6425,13 +6447,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1050" r:id="rId78"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1050" r:id="rId79"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1051" r:id="rId80">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId81">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1051" r:id="rId81">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId82">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6450,13 +6472,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1051" r:id="rId80"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1051" r:id="rId81"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="1052" r:id="rId82">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId83">
+        <oleObject progId="Packager Shell Object" shapeId="1052" r:id="rId83">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId84">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6475,13 +6497,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="1052" r:id="rId82"/>
+        <oleObject progId="Packager Shell Object" shapeId="1052" r:id="rId83"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1053" r:id="rId84">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId85">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1053" r:id="rId85">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId86">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6500,13 +6522,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1053" r:id="rId84"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1053" r:id="rId85"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1054" r:id="rId86">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId87">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1054" r:id="rId87">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId88">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6525,13 +6547,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1054" r:id="rId86"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1054" r:id="rId87"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="1055" r:id="rId88">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId89">
+        <oleObject progId="Packager Shell Object" shapeId="1055" r:id="rId89">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId90">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6550,13 +6572,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="1055" r:id="rId88"/>
+        <oleObject progId="Packager Shell Object" shapeId="1055" r:id="rId89"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1056" r:id="rId90">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId91">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1056" r:id="rId91">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId92">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6575,13 +6597,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1056" r:id="rId90"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1056" r:id="rId91"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1059" r:id="rId92">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId93">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1059" r:id="rId93">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId94">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6600,13 +6622,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1059" r:id="rId92"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1059" r:id="rId93"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1060" r:id="rId94">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId95">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1060" r:id="rId95">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId96">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6625,13 +6647,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1060" r:id="rId94"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1060" r:id="rId95"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1061" r:id="rId96">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId97">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1061" r:id="rId97">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId98">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6650,13 +6672,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1061" r:id="rId96"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1061" r:id="rId97"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1062" r:id="rId98">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId99">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1062" r:id="rId99">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId100">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6675,13 +6697,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1062" r:id="rId98"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1062" r:id="rId99"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1063" r:id="rId100">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId101">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1063" r:id="rId101">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId102">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6700,13 +6722,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1063" r:id="rId100"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1063" r:id="rId101"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1064" r:id="rId102">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId103">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1064" r:id="rId103">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId104">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6725,13 +6747,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1064" r:id="rId102"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1064" r:id="rId103"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1065" r:id="rId104">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId105">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1065" r:id="rId105">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId106">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6750,13 +6772,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1065" r:id="rId104"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1065" r:id="rId105"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1066" r:id="rId106">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId107">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1066" r:id="rId107">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId108">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6775,13 +6797,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1066" r:id="rId106"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1066" r:id="rId107"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1067" r:id="rId108">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId109">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1067" r:id="rId109">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId110">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6800,13 +6822,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1067" r:id="rId108"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1067" r:id="rId109"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1068" r:id="rId110">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId111">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1068" r:id="rId111">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId112">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6825,13 +6847,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1068" r:id="rId110"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1068" r:id="rId111"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1069" r:id="rId112">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId113">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1069" r:id="rId113">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId114">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6850,13 +6872,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1069" r:id="rId112"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1069" r:id="rId113"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1070" r:id="rId114">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId115">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1070" r:id="rId115">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId116">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6875,13 +6897,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1070" r:id="rId114"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1070" r:id="rId115"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1071" r:id="rId116">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId117">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1071" r:id="rId117">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId118">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6900,13 +6922,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1071" r:id="rId116"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1071" r:id="rId117"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1072" r:id="rId118">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId119">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1072" r:id="rId119">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId120">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6925,13 +6947,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1072" r:id="rId118"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1072" r:id="rId119"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1073" r:id="rId120">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId121">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1073" r:id="rId121">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId122">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6950,13 +6972,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1073" r:id="rId120"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1073" r:id="rId121"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1074" r:id="rId122">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId123">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1074" r:id="rId123">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId124">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6975,13 +6997,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1074" r:id="rId122"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1074" r:id="rId123"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1075" r:id="rId124">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId125">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1075" r:id="rId125">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId126">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7000,13 +7022,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1075" r:id="rId124"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1075" r:id="rId125"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1076" r:id="rId126">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId127">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1076" r:id="rId127">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId128">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7025,13 +7047,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1076" r:id="rId126"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1076" r:id="rId127"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1077" r:id="rId128">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId129">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1077" r:id="rId129">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId130">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7050,13 +7072,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1077" r:id="rId128"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1077" r:id="rId129"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1078" r:id="rId130">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId131">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1078" r:id="rId131">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId132">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7075,13 +7097,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1078" r:id="rId130"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1078" r:id="rId131"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1079" r:id="rId132">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId133">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1079" r:id="rId133">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId134">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7100,13 +7122,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1079" r:id="rId132"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1079" r:id="rId133"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1080" r:id="rId134">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId135">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1080" r:id="rId135">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId136">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7125,13 +7147,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1080" r:id="rId134"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1080" r:id="rId135"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1081" r:id="rId136">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId137">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1081" r:id="rId137">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId138">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7150,7 +7172,32 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1081" r:id="rId136"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1081" r:id="rId137"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1082" r:id="rId139">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId140">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>61</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>61</xdr:row>
+                <xdr:rowOff>371475</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1082" r:id="rId139"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/coding-diary.xlsx
+++ b/coding-diary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\decoder\Desktop\Files\coding-ques-diary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E516D1DF-901B-4C18-B740-E1FD9DE53272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81524FC-1D3F-42E7-A8B7-8FCD2B62BF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF84B1F4-3D67-403B-A5D0-63669E60A1CF}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="137">
   <si>
     <t>Topic Name</t>
   </si>
@@ -469,6 +469,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/minimum-depth-of-binary-tree/description/</t>
+  </si>
+  <si>
+    <t>Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/invert-binary-tree/description/</t>
   </si>
 </sst>
 </file>
@@ -3727,15 +3733,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>44823</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>33619</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>491962</xdr:colOff>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>369795</xdr:rowOff>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3745,7 +3751,62 @@
                   <a14:compatExt spid="_x0000_s1082"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAE28251-E2B6-E7D4-68AE-582490A4DBB5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>52667</xdr:colOff>
+          <xdr:row>62</xdr:row>
+          <xdr:rowOff>25774</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>918882</xdr:colOff>
+          <xdr:row>62</xdr:row>
+          <xdr:rowOff>367672</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1083" name="Object 59" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1083"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA9429F8-4268-50F3-DD7D-D9AB5A42544C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4112,8 +4173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE692840-0C23-403C-BBE5-6083C01D5791}">
   <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -5196,10 +5257,22 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="25"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="16"/>
+      <c r="A63" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" s="13">
+        <v>45212</v>
+      </c>
       <c r="E63" s="21"/>
+      <c r="F63" s="14" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="64" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="25"/>
@@ -5794,16 +5867,17 @@
     <hyperlink ref="C60" r:id="rId25" xr:uid="{16C73CD5-0BD5-43AF-996D-F224A963C687}"/>
     <hyperlink ref="C61" r:id="rId26" xr:uid="{74E4EA44-051A-4059-805A-D11E62405ADC}"/>
     <hyperlink ref="C62" r:id="rId27" xr:uid="{CAD517C0-42B7-4F5C-B53C-4195263E8038}"/>
+    <hyperlink ref="C63" r:id="rId28" xr:uid="{B9CDB0CF-43A9-4EEB-B1FD-1746E2890A10}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId28"/>
-  <drawing r:id="rId29"/>
-  <legacyDrawing r:id="rId30"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
+  <drawing r:id="rId30"/>
+  <legacyDrawing r:id="rId31"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1025">
-          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId31">
+          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId32">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -5827,8 +5901,8 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1026" r:id="rId32">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId33">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1026" r:id="rId33">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId34">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -5847,13 +5921,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1026" r:id="rId32"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1026" r:id="rId33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="1027">
-          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId34">
+          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId35">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -5877,8 +5951,8 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1028" r:id="rId35">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId36">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1028" r:id="rId36">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId37">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -5897,13 +5971,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1028" r:id="rId35"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1028" r:id="rId36"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId37">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId38">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId38">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId39">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -5922,13 +5996,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId37"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId38"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1030" r:id="rId39">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId40">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1030" r:id="rId40">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId41">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -5947,13 +6021,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1030" r:id="rId39"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1030" r:id="rId40"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1031" r:id="rId41">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId42">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1031" r:id="rId42">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId43">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -5972,13 +6046,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1031" r:id="rId41"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1031" r:id="rId42"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1032" r:id="rId43">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId44">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1032" r:id="rId44">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId45">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -5997,13 +6071,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1032" r:id="rId43"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1032" r:id="rId44"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1033" r:id="rId45">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId46">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1033" r:id="rId46">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId47">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6022,13 +6096,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1033" r:id="rId45"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1033" r:id="rId46"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1034" r:id="rId47">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId48">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1034" r:id="rId48">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId49">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6047,13 +6121,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1034" r:id="rId47"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1034" r:id="rId48"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId49">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId50">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId50">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId51">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6072,13 +6146,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId49"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId50"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1036" r:id="rId51">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId52">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1036" r:id="rId52">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId53">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6097,13 +6171,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1036" r:id="rId51"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1036" r:id="rId52"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1037" r:id="rId53">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId54">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1037" r:id="rId54">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId55">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6122,13 +6196,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1037" r:id="rId53"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1037" r:id="rId54"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1038" r:id="rId55">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId56">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1038" r:id="rId56">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId57">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6147,13 +6221,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1038" r:id="rId55"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1038" r:id="rId56"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1039" r:id="rId57">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId58">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1039" r:id="rId58">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId59">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6172,13 +6246,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1039" r:id="rId57"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1039" r:id="rId58"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1040" r:id="rId59">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId60">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1040" r:id="rId60">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId61">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6197,13 +6271,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1040" r:id="rId59"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1040" r:id="rId60"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1041" r:id="rId61">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId62">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1041" r:id="rId62">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId63">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6222,13 +6296,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1041" r:id="rId61"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1041" r:id="rId62"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1042" r:id="rId63">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId64">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1042" r:id="rId64">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId65">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6247,13 +6321,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1042" r:id="rId63"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1042" r:id="rId64"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1043" r:id="rId65">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId66">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1043" r:id="rId66">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId67">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6272,13 +6346,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1043" r:id="rId65"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1043" r:id="rId66"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1044" r:id="rId67">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId68">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1044" r:id="rId68">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId69">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6297,13 +6371,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1044" r:id="rId67"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1044" r:id="rId68"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1045" r:id="rId69">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId70">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1045" r:id="rId70">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId71">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6322,13 +6396,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1045" r:id="rId69"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1045" r:id="rId70"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1046" r:id="rId71">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId72">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1046" r:id="rId72">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId73">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6347,13 +6421,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1046" r:id="rId71"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1046" r:id="rId72"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1047" r:id="rId73">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId74">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1047" r:id="rId74">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId75">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6372,13 +6446,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1047" r:id="rId73"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1047" r:id="rId74"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1048" r:id="rId75">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId76">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1048" r:id="rId76">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId77">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6397,13 +6471,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1048" r:id="rId75"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1048" r:id="rId76"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1049" r:id="rId77">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId78">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1049" r:id="rId78">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId79">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6422,13 +6496,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1049" r:id="rId77"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1049" r:id="rId78"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1050" r:id="rId79">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId80">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1050" r:id="rId80">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6447,13 +6521,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1050" r:id="rId79"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1050" r:id="rId80"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1051" r:id="rId81">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId82">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1051" r:id="rId82">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId83">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6472,13 +6546,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1051" r:id="rId81"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1051" r:id="rId82"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="1052" r:id="rId83">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId84">
+        <oleObject progId="Packager Shell Object" shapeId="1052" r:id="rId84">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId85">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6497,13 +6571,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="1052" r:id="rId83"/>
+        <oleObject progId="Packager Shell Object" shapeId="1052" r:id="rId84"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1053" r:id="rId85">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId86">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1053" r:id="rId86">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId87">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6522,13 +6596,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1053" r:id="rId85"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1053" r:id="rId86"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1054" r:id="rId87">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId88">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1054" r:id="rId88">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId89">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6547,13 +6621,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1054" r:id="rId87"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1054" r:id="rId88"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="1055" r:id="rId89">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId90">
+        <oleObject progId="Packager Shell Object" shapeId="1055" r:id="rId90">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId91">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6572,13 +6646,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="1055" r:id="rId89"/>
+        <oleObject progId="Packager Shell Object" shapeId="1055" r:id="rId90"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1056" r:id="rId91">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId92">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1056" r:id="rId92">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId93">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6597,13 +6671,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1056" r:id="rId91"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1056" r:id="rId92"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1059" r:id="rId93">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId94">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1059" r:id="rId94">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId95">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6622,13 +6696,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1059" r:id="rId93"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1059" r:id="rId94"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1060" r:id="rId95">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId96">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1060" r:id="rId96">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId97">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6647,13 +6721,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1060" r:id="rId95"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1060" r:id="rId96"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1061" r:id="rId97">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId98">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1061" r:id="rId98">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId99">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6672,13 +6746,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1061" r:id="rId97"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1061" r:id="rId98"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1062" r:id="rId99">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId100">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1062" r:id="rId100">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId101">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6697,13 +6771,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1062" r:id="rId99"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1062" r:id="rId100"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1063" r:id="rId101">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId102">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1063" r:id="rId102">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId103">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6722,13 +6796,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1063" r:id="rId101"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1063" r:id="rId102"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1064" r:id="rId103">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId104">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1064" r:id="rId104">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId105">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6747,13 +6821,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1064" r:id="rId103"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1064" r:id="rId104"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1065" r:id="rId105">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId106">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1065" r:id="rId106">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId107">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6772,13 +6846,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1065" r:id="rId105"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1065" r:id="rId106"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1066" r:id="rId107">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId108">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1066" r:id="rId108">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId109">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6797,13 +6871,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1066" r:id="rId107"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1066" r:id="rId108"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1067" r:id="rId109">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId110">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1067" r:id="rId110">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId111">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6822,13 +6896,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1067" r:id="rId109"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1067" r:id="rId110"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1068" r:id="rId111">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId112">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1068" r:id="rId112">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId113">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6847,13 +6921,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1068" r:id="rId111"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1068" r:id="rId112"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1069" r:id="rId113">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId114">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1069" r:id="rId114">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId115">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6872,13 +6946,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1069" r:id="rId113"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1069" r:id="rId114"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1070" r:id="rId115">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId116">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1070" r:id="rId116">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId117">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6897,13 +6971,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1070" r:id="rId115"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1070" r:id="rId116"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1071" r:id="rId117">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId118">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1071" r:id="rId118">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId119">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6922,13 +6996,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1071" r:id="rId117"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1071" r:id="rId118"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1072" r:id="rId119">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId120">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1072" r:id="rId120">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId121">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6947,13 +7021,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1072" r:id="rId119"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1072" r:id="rId120"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1073" r:id="rId121">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId122">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1073" r:id="rId122">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId123">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6972,13 +7046,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1073" r:id="rId121"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1073" r:id="rId122"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1074" r:id="rId123">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId124">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1074" r:id="rId124">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId125">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6997,13 +7071,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1074" r:id="rId123"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1074" r:id="rId124"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1075" r:id="rId125">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId126">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1075" r:id="rId126">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId127">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7022,13 +7096,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1075" r:id="rId125"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1075" r:id="rId126"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1076" r:id="rId127">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId128">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1076" r:id="rId128">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId129">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7047,13 +7121,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1076" r:id="rId127"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1076" r:id="rId128"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1077" r:id="rId129">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId130">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1077" r:id="rId130">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId131">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7072,13 +7146,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1077" r:id="rId129"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1077" r:id="rId130"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1078" r:id="rId131">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId132">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1078" r:id="rId132">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId133">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7097,13 +7171,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1078" r:id="rId131"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1078" r:id="rId132"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1079" r:id="rId133">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId134">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1079" r:id="rId134">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId135">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7122,13 +7196,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1079" r:id="rId133"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1079" r:id="rId134"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1080" r:id="rId135">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId136">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1080" r:id="rId136">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId137">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7147,13 +7221,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1080" r:id="rId135"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1080" r:id="rId136"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1081" r:id="rId137">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId138">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1081" r:id="rId138">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId139">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7172,13 +7246,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1081" r:id="rId137"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1081" r:id="rId138"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1082" r:id="rId139">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId140">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1082" r:id="rId140">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId141">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7197,7 +7271,32 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1082" r:id="rId139"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1082" r:id="rId140"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1083" r:id="rId142">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId143">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>62</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>62</xdr:row>
+                <xdr:rowOff>371475</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1083" r:id="rId142"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/coding-diary.xlsx
+++ b/coding-diary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\decoder\Desktop\Files\coding-ques-diary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81524FC-1D3F-42E7-A8B7-8FCD2B62BF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6406778C-4818-4492-AB96-75D152EFCB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF84B1F4-3D67-403B-A5D0-63669E60A1CF}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="145">
   <si>
     <t>Topic Name</t>
   </si>
@@ -475,6 +476,30 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/invert-binary-tree/description/</t>
+  </si>
+  <si>
+    <t>Binary Tree Zigzag Level Order Traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/description/</t>
+  </si>
+  <si>
+    <t>Merge Two Binary Trees</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-two-binary-trees/description/</t>
+  </si>
+  <si>
+    <t>Left view of Binary Tree</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/left-view-of-binary-tree/1</t>
+  </si>
+  <si>
+    <t>Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/validate-binary-search-tree/description/</t>
   </si>
 </sst>
 </file>
@@ -3788,15 +3813,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>52667</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>62</xdr:row>
-          <xdr:rowOff>25774</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>918882</xdr:colOff>
+          <xdr:colOff>914400</xdr:colOff>
           <xdr:row>62</xdr:row>
-          <xdr:rowOff>367672</xdr:rowOff>
+          <xdr:rowOff>371475</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3806,7 +3831,7 @@
                   <a14:compatExt spid="_x0000_s1083"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA9429F8-4268-50F3-DD7D-D9AB5A42544C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3827,23 +3852,230 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1057275</xdr:colOff>
+          <xdr:row>63</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>2809875</xdr:colOff>
+          <xdr:row>63</xdr:row>
+          <xdr:rowOff>352425</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1084" name="Object 60" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1084"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1190625</xdr:colOff>
+          <xdr:row>64</xdr:row>
+          <xdr:rowOff>361950</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1085" name="Object 61" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1085"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>819150</xdr:colOff>
+          <xdr:row>65</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1962150</xdr:colOff>
+          <xdr:row>65</xdr:row>
+          <xdr:rowOff>371475</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1086" name="Object 62" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1086"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>66</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:row>66</xdr:row>
+          <xdr:rowOff>361950</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1087" name="Object 63" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1087"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4173,8 +4405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE692840-0C23-403C-BBE5-6083C01D5791}">
   <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="B56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -5275,102 +5507,147 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="25"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="16"/>
+      <c r="A64" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D64" s="13">
+        <v>45213</v>
+      </c>
       <c r="E64" s="21"/>
-    </row>
-    <row r="65" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="25"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="16"/>
+      <c r="F64" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65" s="13">
+        <v>45213</v>
+      </c>
       <c r="E65" s="21"/>
-    </row>
-    <row r="66" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="25"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="16"/>
+      <c r="F65" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D66" s="13">
+        <v>45213</v>
+      </c>
       <c r="E66" s="21"/>
-    </row>
-    <row r="67" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="25"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="16"/>
+      <c r="F66" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D67" s="13">
+        <v>45213</v>
+      </c>
       <c r="E67" s="21"/>
-    </row>
-    <row r="68" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F67" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="25"/>
       <c r="C68" s="15"/>
       <c r="D68" s="16"/>
       <c r="E68" s="21"/>
     </row>
-    <row r="69" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="25"/>
       <c r="C69" s="15"/>
       <c r="D69" s="16"/>
       <c r="E69" s="21"/>
     </row>
-    <row r="70" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="25"/>
       <c r="C70" s="15"/>
       <c r="D70" s="16"/>
       <c r="E70" s="21"/>
     </row>
-    <row r="71" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="25"/>
       <c r="C71" s="15"/>
       <c r="D71" s="16"/>
       <c r="E71" s="21"/>
     </row>
-    <row r="72" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="25"/>
       <c r="C72" s="15"/>
       <c r="D72" s="16"/>
       <c r="E72" s="21"/>
     </row>
-    <row r="73" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="25"/>
       <c r="C73" s="15"/>
       <c r="D73" s="16"/>
       <c r="E73" s="21"/>
     </row>
-    <row r="74" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="25"/>
       <c r="C74" s="15"/>
       <c r="D74" s="16"/>
       <c r="E74" s="21"/>
     </row>
-    <row r="75" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="25"/>
       <c r="C75" s="15"/>
       <c r="D75" s="16"/>
       <c r="E75" s="21"/>
     </row>
-    <row r="76" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="25"/>
       <c r="C76" s="15"/>
       <c r="D76" s="16"/>
       <c r="E76" s="21"/>
     </row>
-    <row r="77" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="25"/>
       <c r="C77" s="15"/>
       <c r="D77" s="16"/>
       <c r="E77" s="21"/>
     </row>
-    <row r="78" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="25"/>
       <c r="C78" s="15"/>
       <c r="D78" s="16"/>
       <c r="E78" s="21"/>
     </row>
-    <row r="79" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="25"/>
       <c r="C79" s="15"/>
       <c r="D79" s="16"/>
       <c r="E79" s="21"/>
     </row>
-    <row r="80" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="25"/>
       <c r="C80" s="15"/>
       <c r="D80" s="16"/>
@@ -5868,16 +6145,20 @@
     <hyperlink ref="C61" r:id="rId26" xr:uid="{74E4EA44-051A-4059-805A-D11E62405ADC}"/>
     <hyperlink ref="C62" r:id="rId27" xr:uid="{CAD517C0-42B7-4F5C-B53C-4195263E8038}"/>
     <hyperlink ref="C63" r:id="rId28" xr:uid="{B9CDB0CF-43A9-4EEB-B1FD-1746E2890A10}"/>
+    <hyperlink ref="C64" r:id="rId29" xr:uid="{79227722-E000-428D-B48B-2A3A7739010A}"/>
+    <hyperlink ref="C65" r:id="rId30" xr:uid="{51FE49D4-B4A3-4BBE-91AA-5136CD06150A}"/>
+    <hyperlink ref="C66" r:id="rId31" xr:uid="{F58C5564-808A-4C22-BC6C-1A0E62D4C3D6}"/>
+    <hyperlink ref="C67" r:id="rId32" xr:uid="{6B038583-AEE8-41C2-9A62-61AE35836E64}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId29"/>
-  <drawing r:id="rId30"/>
-  <legacyDrawing r:id="rId31"/>
+  <pageSetup orientation="portrait" r:id="rId33"/>
+  <drawing r:id="rId34"/>
+  <legacyDrawing r:id="rId35"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1025">
-          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId32">
+          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId36">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -5901,8 +6182,8 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1026" r:id="rId33">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId34">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1026" r:id="rId37">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId38">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -5921,13 +6202,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1026" r:id="rId33"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1026" r:id="rId37"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="1027">
-          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId35">
+          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId39">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -5951,8 +6232,8 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1028" r:id="rId36">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId37">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1028" r:id="rId40">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId41">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -5971,13 +6252,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1028" r:id="rId36"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1028" r:id="rId40"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId38">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId39">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId42">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId43">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -5996,13 +6277,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId38"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId42"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1030" r:id="rId40">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId41">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1030" r:id="rId44">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId45">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6021,13 +6302,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1030" r:id="rId40"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1030" r:id="rId44"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1031" r:id="rId42">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId43">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1031" r:id="rId46">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId47">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6046,13 +6327,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1031" r:id="rId42"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1031" r:id="rId46"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1032" r:id="rId44">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId45">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1032" r:id="rId48">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId49">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6071,13 +6352,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1032" r:id="rId44"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1032" r:id="rId48"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1033" r:id="rId46">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId47">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1033" r:id="rId50">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId51">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6096,13 +6377,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1033" r:id="rId46"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1033" r:id="rId50"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1034" r:id="rId48">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId49">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1034" r:id="rId52">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId53">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6121,13 +6402,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1034" r:id="rId48"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1034" r:id="rId52"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId50">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId51">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId54">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId55">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6146,13 +6427,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId50"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId54"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1036" r:id="rId52">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId53">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1036" r:id="rId56">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId57">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6171,13 +6452,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1036" r:id="rId52"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1036" r:id="rId56"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1037" r:id="rId54">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId55">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1037" r:id="rId58">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId59">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6196,13 +6477,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1037" r:id="rId54"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1037" r:id="rId58"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1038" r:id="rId56">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId57">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1038" r:id="rId60">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId61">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6221,13 +6502,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1038" r:id="rId56"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1038" r:id="rId60"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1039" r:id="rId58">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId59">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1039" r:id="rId62">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId63">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6246,13 +6527,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1039" r:id="rId58"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1039" r:id="rId62"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1040" r:id="rId60">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId61">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1040" r:id="rId64">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId65">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6271,13 +6552,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1040" r:id="rId60"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1040" r:id="rId64"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1041" r:id="rId62">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId63">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1041" r:id="rId66">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId67">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6296,13 +6577,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1041" r:id="rId62"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1041" r:id="rId66"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1042" r:id="rId64">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId65">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1042" r:id="rId68">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId69">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6321,13 +6602,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1042" r:id="rId64"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1042" r:id="rId68"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1043" r:id="rId66">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId67">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1043" r:id="rId70">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId71">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6346,13 +6627,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1043" r:id="rId66"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1043" r:id="rId70"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1044" r:id="rId68">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId69">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1044" r:id="rId72">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId73">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6371,13 +6652,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1044" r:id="rId68"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1044" r:id="rId72"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1045" r:id="rId70">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId71">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1045" r:id="rId74">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId75">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6396,13 +6677,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1045" r:id="rId70"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1045" r:id="rId74"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1046" r:id="rId72">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId73">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1046" r:id="rId76">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId77">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6421,13 +6702,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1046" r:id="rId72"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1046" r:id="rId76"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1047" r:id="rId74">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId75">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1047" r:id="rId78">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId79">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6446,13 +6727,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1047" r:id="rId74"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1047" r:id="rId78"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1048" r:id="rId76">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId77">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1048" r:id="rId80">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6471,13 +6752,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1048" r:id="rId76"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1048" r:id="rId80"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1049" r:id="rId78">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId79">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1049" r:id="rId82">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId83">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6496,13 +6777,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1049" r:id="rId78"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1049" r:id="rId82"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1050" r:id="rId80">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId81">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1050" r:id="rId84">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId85">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6521,13 +6802,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1050" r:id="rId80"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1050" r:id="rId84"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1051" r:id="rId82">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId83">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1051" r:id="rId86">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId87">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6546,13 +6827,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1051" r:id="rId82"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1051" r:id="rId86"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="1052" r:id="rId84">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId85">
+        <oleObject progId="Packager Shell Object" shapeId="1052" r:id="rId88">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId89">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6571,13 +6852,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="1052" r:id="rId84"/>
+        <oleObject progId="Packager Shell Object" shapeId="1052" r:id="rId88"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1053" r:id="rId86">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId87">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1053" r:id="rId90">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId91">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6596,13 +6877,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1053" r:id="rId86"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1053" r:id="rId90"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1054" r:id="rId88">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId89">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1054" r:id="rId92">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId93">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6621,13 +6902,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1054" r:id="rId88"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1054" r:id="rId92"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="1055" r:id="rId90">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId91">
+        <oleObject progId="Packager Shell Object" shapeId="1055" r:id="rId94">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId95">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6646,13 +6927,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="1055" r:id="rId90"/>
+        <oleObject progId="Packager Shell Object" shapeId="1055" r:id="rId94"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1056" r:id="rId92">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId93">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1056" r:id="rId96">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId97">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6671,13 +6952,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1056" r:id="rId92"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1056" r:id="rId96"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1059" r:id="rId94">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId95">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1059" r:id="rId98">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId99">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6696,13 +6977,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1059" r:id="rId94"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1059" r:id="rId98"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1060" r:id="rId96">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId97">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1060" r:id="rId100">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId101">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6721,13 +7002,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1060" r:id="rId96"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1060" r:id="rId100"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1061" r:id="rId98">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId99">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1061" r:id="rId102">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId103">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6746,13 +7027,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1061" r:id="rId98"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1061" r:id="rId102"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1062" r:id="rId100">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId101">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1062" r:id="rId104">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId105">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6771,13 +7052,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1062" r:id="rId100"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1062" r:id="rId104"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1063" r:id="rId102">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId103">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1063" r:id="rId106">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId107">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6796,13 +7077,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1063" r:id="rId102"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1063" r:id="rId106"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1064" r:id="rId104">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId105">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1064" r:id="rId108">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId109">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6821,13 +7102,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1064" r:id="rId104"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1064" r:id="rId108"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1065" r:id="rId106">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId107">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1065" r:id="rId110">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId111">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6846,13 +7127,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1065" r:id="rId106"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1065" r:id="rId110"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1066" r:id="rId108">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId109">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1066" r:id="rId112">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId113">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6871,13 +7152,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1066" r:id="rId108"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1066" r:id="rId112"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1067" r:id="rId110">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId111">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1067" r:id="rId114">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId115">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6896,13 +7177,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1067" r:id="rId110"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1067" r:id="rId114"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1068" r:id="rId112">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId113">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1068" r:id="rId116">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId117">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6921,13 +7202,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1068" r:id="rId112"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1068" r:id="rId116"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1069" r:id="rId114">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId115">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1069" r:id="rId118">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId119">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6946,13 +7227,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1069" r:id="rId114"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1069" r:id="rId118"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1070" r:id="rId116">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId117">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1070" r:id="rId120">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId121">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6971,13 +7252,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1070" r:id="rId116"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1070" r:id="rId120"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1071" r:id="rId118">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId119">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1071" r:id="rId122">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId123">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6996,13 +7277,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1071" r:id="rId118"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1071" r:id="rId122"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1072" r:id="rId120">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId121">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1072" r:id="rId124">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId125">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7021,13 +7302,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1072" r:id="rId120"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1072" r:id="rId124"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1073" r:id="rId122">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId123">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1073" r:id="rId126">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId127">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7046,13 +7327,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1073" r:id="rId122"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1073" r:id="rId126"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1074" r:id="rId124">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId125">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1074" r:id="rId128">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId129">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7071,13 +7352,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1074" r:id="rId124"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1074" r:id="rId128"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1075" r:id="rId126">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId127">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1075" r:id="rId130">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId131">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7096,13 +7377,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1075" r:id="rId126"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1075" r:id="rId130"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1076" r:id="rId128">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId129">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1076" r:id="rId132">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId133">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7121,13 +7402,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1076" r:id="rId128"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1076" r:id="rId132"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1077" r:id="rId130">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId131">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1077" r:id="rId134">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId135">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7146,13 +7427,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1077" r:id="rId130"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1077" r:id="rId134"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1078" r:id="rId132">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId133">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1078" r:id="rId136">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId137">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7171,13 +7452,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1078" r:id="rId132"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1078" r:id="rId136"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1079" r:id="rId134">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId135">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1079" r:id="rId138">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId139">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7196,13 +7477,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1079" r:id="rId134"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1079" r:id="rId138"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1080" r:id="rId136">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId137">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1080" r:id="rId140">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId141">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7221,13 +7502,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1080" r:id="rId136"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1080" r:id="rId140"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1081" r:id="rId138">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId139">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1081" r:id="rId142">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId143">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7246,13 +7527,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1081" r:id="rId138"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1081" r:id="rId142"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1082" r:id="rId140">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId141">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1082" r:id="rId144">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId145">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7271,13 +7552,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1082" r:id="rId140"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1082" r:id="rId144"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1083" r:id="rId142">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId143">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1083" r:id="rId146">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId147">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7296,7 +7577,107 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1083" r:id="rId142"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1083" r:id="rId146"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1084" r:id="rId148">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId149">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1057275</xdr:colOff>
+                <xdr:row>63</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>2809875</xdr:colOff>
+                <xdr:row>63</xdr:row>
+                <xdr:rowOff>352425</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1084" r:id="rId148"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1085" r:id="rId150">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId151">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>64</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1190625</xdr:colOff>
+                <xdr:row>64</xdr:row>
+                <xdr:rowOff>361950</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1085" r:id="rId150"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1086" r:id="rId152">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId153">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>65</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1962150</xdr:colOff>
+                <xdr:row>65</xdr:row>
+                <xdr:rowOff>371475</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1086" r:id="rId152"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1087" r:id="rId154">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId155">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>66</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1038225</xdr:colOff>
+                <xdr:row>66</xdr:row>
+                <xdr:rowOff>361950</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1087" r:id="rId154"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/coding-diary.xlsx
+++ b/coding-diary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\decoder\Desktop\Files\coding-ques-diary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6406778C-4818-4492-AB96-75D152EFCB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA97D2DF-8A6C-44DF-8735-31F0A41202B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF84B1F4-3D67-403B-A5D0-63669E60A1CF}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="149">
   <si>
     <t>Topic Name</t>
   </si>
@@ -500,6 +499,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/validate-binary-search-tree/description/</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/description/</t>
+  </si>
+  <si>
+    <t>Binary Tree to DLL</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/binary-tree-to-dll/1</t>
   </si>
 </sst>
 </file>
@@ -552,7 +563,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -579,12 +590,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -597,7 +602,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,34 +685,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4076,6 +4084,142 @@
               <a:headEnd/>
               <a:tailEnd/>
             </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>646579</xdr:colOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>45384</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>2330823</xdr:colOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>358134</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1088" name="Object 64" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1088"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9462BCC-8BDF-C55E-3725-6FB4DC35F0C3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>41461</xdr:colOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>24653</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>906612</xdr:colOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>347382</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1089" name="Object 65" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1089"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE6300F3-3D15-3968-FC84-320F3BE60C5E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4405,1715 +4549,1748 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE692840-0C23-403C-BBE5-6083C01D5791}">
   <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="B53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="124.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="84.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="124.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:6" s="27" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="25">
         <v>45114</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:6" s="27" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="25">
         <v>45114</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="17" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:6" s="27" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="25">
         <v>45114</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="26"/>
+      <c r="F4" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:6" s="27" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="25">
         <v>45116</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="17" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:6" s="27" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="25">
         <v>45117</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="17" t="s">
+      <c r="E6" s="29"/>
+      <c r="F6" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:6" s="27" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="25">
         <v>45124</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="17" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:6" s="27" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="25">
         <v>45121</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="17" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="21"/>
-    </row>
-    <row r="10" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:6" s="27" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="25">
         <v>45122</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="17" t="s">
+      <c r="E10" s="26"/>
+      <c r="F10" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="21"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="21"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="21"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="21"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="21"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="10">
         <v>45125</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="14" t="s">
+      <c r="E16" s="15"/>
+      <c r="F16" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="10">
         <v>45125</v>
       </c>
-      <c r="E17" s="21"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="10">
         <v>45124</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="14" t="s">
+      <c r="E18" s="15"/>
+      <c r="F18" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="13">
         <v>45124</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="10">
         <v>45127</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="14" t="s">
+      <c r="E20" s="15"/>
+      <c r="F20" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="10">
         <v>45127</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="14" t="s">
+      <c r="E21" s="15"/>
+      <c r="F21" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="10">
         <v>45132</v>
       </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="14" t="s">
+      <c r="E22" s="15"/>
+      <c r="F22" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="10">
         <v>45133</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="14" t="s">
+      <c r="E23" s="15"/>
+      <c r="F23" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="10">
         <v>45134</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="14" t="s">
+      <c r="E24" s="15"/>
+      <c r="F24" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="10">
         <v>45134</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="14" t="s">
+      <c r="E25" s="15"/>
+      <c r="F25" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="10">
         <v>45135</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="14" t="s">
+      <c r="E26" s="15"/>
+      <c r="F26" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="10">
         <v>45136</v>
       </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="14" t="s">
+      <c r="E27" s="15"/>
+      <c r="F27" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="10">
         <v>45138</v>
       </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="14" t="s">
+      <c r="E28" s="15"/>
+      <c r="F28" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="10">
         <v>45140</v>
       </c>
-      <c r="E29" s="21"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="10">
         <v>45140</v>
       </c>
-      <c r="E30" s="21"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="10">
         <v>45141</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="14" t="s">
+      <c r="E31" s="15"/>
+      <c r="F31" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="27" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="25">
+        <v>45142</v>
+      </c>
+      <c r="F32" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
+    <row r="33" spans="1:6" s="27" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="13">
+      <c r="B33" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="25">
         <v>45142</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="E33" s="26"/>
+      <c r="F33" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
+    <row r="34" spans="1:6" s="27" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="13">
-        <v>45142</v>
-      </c>
-      <c r="E33" s="21"/>
-    </row>
-    <row r="34" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
+      <c r="B34" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="25">
+        <v>45143</v>
+      </c>
+      <c r="E34" s="26"/>
+      <c r="F34" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="27" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="13">
-        <v>45143</v>
-      </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="14" t="s">
+      <c r="B35" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="25">
+        <v>45149</v>
+      </c>
+      <c r="E35" s="26"/>
+      <c r="F35" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+    <row r="36" spans="1:6" s="27" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="13">
+      <c r="B36" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="25">
         <v>45149</v>
       </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="14" t="s">
+      <c r="E36" s="26"/>
+      <c r="F36" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
+    <row r="37" spans="1:6" s="27" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="13">
+      <c r="B37" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="25">
         <v>45149</v>
       </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="14" t="s">
+      <c r="E37" s="26"/>
+      <c r="F37" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+    <row r="38" spans="1:6" s="27" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="13">
-        <v>45149</v>
-      </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="14" t="s">
+      <c r="B38" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="25">
+        <v>45150</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="13">
-        <v>45150</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" s="14" t="s">
+    <row r="39" spans="1:6" s="27" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="25">
+        <v>45156</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
+    <row r="40" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="13">
-        <v>45156</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="F39" s="14" t="s">
+      <c r="B40" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="10">
+        <v>45160</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="10">
+        <v>45160</v>
+      </c>
+      <c r="E41" s="15"/>
+      <c r="F41" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="10">
+        <v>45161</v>
+      </c>
+      <c r="E42" s="15"/>
+      <c r="F42" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="10">
+        <v>45161</v>
+      </c>
+      <c r="E43" s="15"/>
+      <c r="F43" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="10">
+        <v>45163</v>
+      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="27" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="25">
+        <v>45169</v>
+      </c>
+      <c r="E45" s="26"/>
+      <c r="F45" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="13">
-        <v>45160</v>
-      </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="14" t="s">
+    <row r="46" spans="1:6" s="27" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="25">
+        <v>45169</v>
+      </c>
+      <c r="E46" s="26"/>
+      <c r="F46" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" s="13">
-        <v>45160</v>
-      </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="14" t="s">
+    <row r="47" spans="1:6" s="27" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="25">
+        <v>45170</v>
+      </c>
+      <c r="E47" s="26"/>
+      <c r="F47" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="13">
-        <v>45161</v>
-      </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="14" t="s">
+    <row r="48" spans="1:6" s="27" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="25">
+        <v>45170</v>
+      </c>
+      <c r="E48" s="26"/>
+      <c r="F48" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="13">
-        <v>45161</v>
-      </c>
-      <c r="E43" s="21"/>
-      <c r="F43" s="14" t="s">
+    <row r="49" spans="1:6" s="27" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" s="25">
+        <v>45170</v>
+      </c>
+      <c r="E49" s="26"/>
+      <c r="F49" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" s="13">
-        <v>45163</v>
-      </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="14" t="s">
+    <row r="50" spans="1:6" s="27" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="25">
+        <v>45177</v>
+      </c>
+      <c r="E50" s="26"/>
+      <c r="F50" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" s="13">
-        <v>45169</v>
-      </c>
-      <c r="E45" s="21"/>
-      <c r="F45" s="14" t="s">
+    <row r="51" spans="1:6" s="27" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="25">
+        <v>45178</v>
+      </c>
+      <c r="E51" s="26"/>
+      <c r="F51" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" s="10">
+        <v>45178</v>
+      </c>
+      <c r="E52" s="15"/>
+      <c r="F52" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="10">
+        <v>45178</v>
+      </c>
+      <c r="E53" s="15"/>
+      <c r="F53" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="10">
+        <v>45180</v>
+      </c>
+      <c r="E54" s="15"/>
+      <c r="F54" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="27" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="25">
+        <v>45181</v>
+      </c>
+      <c r="E55" s="26"/>
+      <c r="F55" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="13">
-        <v>45169</v>
-      </c>
-      <c r="E46" s="21"/>
-      <c r="F46" s="14" t="s">
+    <row r="56" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" s="10">
+        <v>45211</v>
+      </c>
+      <c r="E56" s="15"/>
+      <c r="F56" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="27" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" s="25">
+        <v>45212</v>
+      </c>
+      <c r="E57" s="26"/>
+      <c r="F57" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D47" s="13">
-        <v>45170</v>
-      </c>
-      <c r="E47" s="21"/>
-      <c r="F47" s="14" t="s">
+    <row r="58" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" s="10">
+        <v>45209</v>
+      </c>
+      <c r="E58" s="15"/>
+      <c r="F58" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="27" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59" s="25">
+        <v>45209</v>
+      </c>
+      <c r="E59" s="26"/>
+      <c r="F59" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D48" s="13">
-        <v>45170</v>
-      </c>
-      <c r="E48" s="21"/>
-      <c r="F48" s="14" t="s">
+    <row r="60" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" s="10">
+        <v>45209</v>
+      </c>
+      <c r="E60" s="15"/>
+      <c r="F60" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" s="10">
+        <v>45209</v>
+      </c>
+      <c r="E61" s="15"/>
+      <c r="F61" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="27" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62" s="25">
+        <v>45211</v>
+      </c>
+      <c r="E62" s="26"/>
+      <c r="F62" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D49" s="13">
-        <v>45170</v>
-      </c>
-      <c r="E49" s="21"/>
-      <c r="F49" s="14" t="s">
+    <row r="63" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" s="10">
+        <v>45212</v>
+      </c>
+      <c r="E63" s="15"/>
+      <c r="F63" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D64" s="10">
+        <v>45213</v>
+      </c>
+      <c r="E64" s="15"/>
+      <c r="F64" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65" s="10">
+        <v>45213</v>
+      </c>
+      <c r="E65" s="15"/>
+      <c r="F65" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="27" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D66" s="25">
+        <v>45213</v>
+      </c>
+      <c r="E66" s="26"/>
+      <c r="F66" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="13">
-        <v>45177</v>
-      </c>
-      <c r="E50" s="21"/>
-      <c r="F50" s="14" t="s">
+    <row r="67" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D67" s="10">
+        <v>45213</v>
+      </c>
+      <c r="E67" s="15"/>
+      <c r="F67" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="27" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" s="25">
+        <v>45214</v>
+      </c>
+      <c r="E68" s="26"/>
+      <c r="F68" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="13">
-        <v>45178</v>
-      </c>
-      <c r="E51" s="21"/>
-      <c r="F51" s="14" t="s">
+    <row r="69" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" s="10">
+        <v>45214</v>
+      </c>
+      <c r="E69" s="15"/>
+      <c r="F69" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D52" s="13">
-        <v>45178</v>
-      </c>
-      <c r="E52" s="21"/>
-      <c r="F52" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D53" s="13">
-        <v>45178</v>
-      </c>
-      <c r="E53" s="21"/>
-      <c r="F53" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D54" s="13">
-        <v>45180</v>
-      </c>
-      <c r="E54" s="21"/>
-      <c r="F54" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D55" s="13">
-        <v>45181</v>
-      </c>
-      <c r="E55" s="21"/>
-      <c r="F55" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D56" s="13">
-        <v>45211</v>
-      </c>
-      <c r="E56" s="21"/>
-      <c r="F56" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D57" s="13">
-        <v>45212</v>
-      </c>
-      <c r="E57" s="21"/>
-      <c r="F57" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D58" s="13">
-        <v>45209</v>
-      </c>
-      <c r="E58" s="21"/>
-      <c r="F58" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D59" s="13">
-        <v>45209</v>
-      </c>
-      <c r="E59" s="21"/>
-      <c r="F59" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B60" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D60" s="13">
-        <v>45209</v>
-      </c>
-      <c r="E60" s="21"/>
-      <c r="F60" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B61" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D61" s="13">
-        <v>45209</v>
-      </c>
-      <c r="E61" s="21"/>
-      <c r="F61" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D62" s="13">
-        <v>45211</v>
-      </c>
-      <c r="E62" s="21"/>
-      <c r="F62" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B63" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D63" s="13">
-        <v>45212</v>
-      </c>
-      <c r="E63" s="21"/>
-      <c r="F63" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D64" s="13">
-        <v>45213</v>
-      </c>
-      <c r="E64" s="21"/>
-      <c r="F64" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B65" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D65" s="13">
-        <v>45213</v>
-      </c>
-      <c r="E65" s="21"/>
-      <c r="F65" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D66" s="13">
-        <v>45213</v>
-      </c>
-      <c r="E66" s="21"/>
-      <c r="F66" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D67" s="13">
-        <v>45213</v>
-      </c>
-      <c r="E67" s="21"/>
-      <c r="F67" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="25"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="21"/>
-    </row>
-    <row r="69" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="25"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="21"/>
-    </row>
     <row r="70" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="25"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="21"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="25"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="21"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="15"/>
     </row>
     <row r="72" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="25"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="21"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="15"/>
     </row>
     <row r="73" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="25"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="21"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="15"/>
     </row>
     <row r="74" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="25"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="21"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="15"/>
     </row>
     <row r="75" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="25"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="21"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="25"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="21"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="15"/>
     </row>
     <row r="77" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="25"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="21"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="15"/>
     </row>
     <row r="78" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="25"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="21"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="15"/>
     </row>
     <row r="79" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="25"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="21"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="15"/>
     </row>
     <row r="80" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="25"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="21"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="15"/>
     </row>
     <row r="81" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="25"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="21"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="15"/>
     </row>
     <row r="82" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="25"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="21"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="15"/>
     </row>
     <row r="83" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="25"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="21"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="15"/>
     </row>
     <row r="84" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="25"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="21"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="15"/>
     </row>
     <row r="85" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="25"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="21"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="15"/>
     </row>
     <row r="86" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="25"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="21"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="15"/>
     </row>
     <row r="87" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="25"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="21"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="15"/>
     </row>
     <row r="88" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="25"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="21"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="15"/>
     </row>
     <row r="89" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="25"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="21"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="15"/>
     </row>
     <row r="90" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="25"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="21"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="15"/>
     </row>
     <row r="91" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="25"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="21"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="15"/>
     </row>
     <row r="92" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="25"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="21"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="15"/>
     </row>
     <row r="93" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="25"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="21"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="15"/>
     </row>
     <row r="94" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="25"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="21"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="15"/>
     </row>
     <row r="95" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="25"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="21"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="15"/>
     </row>
     <row r="96" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="25"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="21"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="15"/>
     </row>
     <row r="97" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="25"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="21"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="15"/>
     </row>
     <row r="98" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="25"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="21"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="15"/>
     </row>
     <row r="99" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="25"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="21"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="15"/>
     </row>
     <row r="100" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="25"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="21"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="15"/>
     </row>
     <row r="101" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="25"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="21"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="15"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B102" s="25"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="21"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="15"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B103" s="25"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="21"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="15"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B104" s="25"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="21"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="15"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B105" s="25"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="21"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="15"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B106" s="25"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="21"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="15"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B107" s="25"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="21"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="15"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B108" s="25"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="21"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="15"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B109" s="25"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="21"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="15"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B110" s="25"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="21"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="15"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B111" s="25"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="21"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="15"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B112" s="25"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="21"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="15"/>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B113" s="25"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="21"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="15"/>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B114" s="25"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="21"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="15"/>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B115" s="25"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="21"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="15"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B116" s="25"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="21"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="15"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B117" s="25"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="21"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="15"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B118" s="25"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="21"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="15"/>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B119" s="25"/>
-      <c r="C119" s="15"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="21"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="15"/>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B120" s="25"/>
-      <c r="C120" s="15"/>
-      <c r="D120" s="16"/>
-      <c r="E120" s="21"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="15"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B121" s="25"/>
-      <c r="C121" s="15"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="21"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="15"/>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B122" s="25"/>
-      <c r="C122" s="15"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="21"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="15"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B123" s="25"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="21"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="15"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B124" s="25"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="16"/>
-      <c r="E124" s="21"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="15"/>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B125" s="25"/>
-      <c r="C125" s="15"/>
-      <c r="D125" s="16"/>
-      <c r="E125" s="21"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="15"/>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B126" s="25"/>
-      <c r="C126" s="15"/>
-      <c r="D126" s="16"/>
-      <c r="E126" s="21"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="15"/>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B127" s="25"/>
-      <c r="C127" s="15"/>
-      <c r="D127" s="16"/>
-      <c r="E127" s="21"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="15"/>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B128" s="25"/>
-      <c r="C128" s="15"/>
-      <c r="D128" s="16"/>
-      <c r="E128" s="21"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="15"/>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B129" s="25"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="16"/>
-      <c r="E129" s="21"/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="15"/>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B130" s="25"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="16"/>
-      <c r="E130" s="21"/>
+      <c r="B130" s="17"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="15"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B131" s="25"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="16"/>
-      <c r="E131" s="21"/>
+      <c r="B131" s="17"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="15"/>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B132" s="25"/>
-      <c r="C132" s="15"/>
-      <c r="D132" s="16"/>
-      <c r="E132" s="21"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="15"/>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B133" s="25"/>
-      <c r="C133" s="15"/>
-      <c r="D133" s="16"/>
-      <c r="E133" s="21"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="15"/>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B134" s="25"/>
-      <c r="C134" s="15"/>
-      <c r="D134" s="16"/>
-      <c r="E134" s="21"/>
+      <c r="B134" s="17"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="15"/>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B135" s="25"/>
-      <c r="C135" s="15"/>
-      <c r="D135" s="16"/>
-      <c r="E135" s="21"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="15"/>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B136" s="25"/>
-      <c r="C136" s="15"/>
-      <c r="D136" s="16"/>
-      <c r="E136" s="21"/>
+      <c r="B136" s="17"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="15"/>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B137" s="25"/>
-      <c r="C137" s="15"/>
-      <c r="D137" s="16"/>
-      <c r="E137" s="21"/>
+      <c r="B137" s="17"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="15"/>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B138" s="25"/>
-      <c r="C138" s="15"/>
-      <c r="D138" s="16"/>
-      <c r="E138" s="21"/>
+      <c r="B138" s="17"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="15"/>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B139" s="25"/>
-      <c r="C139" s="15"/>
-      <c r="D139" s="16"/>
-      <c r="E139" s="21"/>
+      <c r="B139" s="17"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="15"/>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B140" s="25"/>
-      <c r="C140" s="15"/>
-      <c r="D140" s="16"/>
-      <c r="E140" s="21"/>
+      <c r="B140" s="17"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="15"/>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B141" s="25"/>
-      <c r="C141" s="15"/>
-      <c r="D141" s="16"/>
-      <c r="E141" s="21"/>
+      <c r="B141" s="17"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="15"/>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B142" s="25"/>
-      <c r="C142" s="15"/>
-      <c r="D142" s="16"/>
-      <c r="E142" s="21"/>
+      <c r="B142" s="17"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="15"/>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B143" s="25"/>
-      <c r="C143" s="15"/>
-      <c r="D143" s="16"/>
-      <c r="E143" s="21"/>
+      <c r="B143" s="17"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="15"/>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B144" s="25"/>
-      <c r="C144" s="15"/>
-      <c r="D144" s="16"/>
-      <c r="E144" s="21"/>
+      <c r="B144" s="17"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="15"/>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B145" s="25"/>
-      <c r="C145" s="15"/>
-      <c r="D145" s="16"/>
-      <c r="E145" s="21"/>
+      <c r="B145" s="17"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="15"/>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B146" s="25"/>
-      <c r="C146" s="15"/>
-      <c r="D146" s="16"/>
-      <c r="E146" s="21"/>
+      <c r="B146" s="17"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="15"/>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B147" s="25"/>
-      <c r="C147" s="15"/>
-      <c r="D147" s="16"/>
-      <c r="E147" s="21"/>
+      <c r="B147" s="17"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="15"/>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B148" s="25"/>
-      <c r="C148" s="15"/>
-      <c r="D148" s="16"/>
-      <c r="E148" s="21"/>
+      <c r="B148" s="17"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="15"/>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B149" s="25"/>
-      <c r="C149" s="15"/>
-      <c r="D149" s="16"/>
-      <c r="E149" s="21"/>
+      <c r="B149" s="17"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="15"/>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B150" s="25"/>
-      <c r="C150" s="15"/>
-      <c r="D150" s="16"/>
-      <c r="E150" s="21"/>
+      <c r="B150" s="17"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="15"/>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B151" s="25"/>
-      <c r="C151" s="15"/>
-      <c r="D151" s="16"/>
-      <c r="E151" s="21"/>
+      <c r="B151" s="17"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="15"/>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B152" s="25"/>
-      <c r="C152" s="15"/>
-      <c r="D152" s="16"/>
-      <c r="E152" s="21"/>
+      <c r="B152" s="17"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="15"/>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B153" s="25"/>
-      <c r="C153" s="15"/>
-      <c r="D153" s="16"/>
-      <c r="E153" s="21"/>
+      <c r="B153" s="17"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="15"/>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B154" s="25"/>
-      <c r="C154" s="15"/>
-      <c r="D154" s="16"/>
-      <c r="E154" s="21"/>
+      <c r="B154" s="17"/>
+      <c r="C154" s="9"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="15"/>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B155" s="25"/>
-      <c r="C155" s="15"/>
-      <c r="D155" s="16"/>
-      <c r="E155" s="21"/>
+      <c r="B155" s="17"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="15"/>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B156" s="25"/>
-      <c r="C156" s="15"/>
-      <c r="D156" s="16"/>
-      <c r="E156" s="21"/>
+      <c r="B156" s="17"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="15"/>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B157" s="25"/>
-      <c r="C157" s="15"/>
-      <c r="D157" s="16"/>
-      <c r="E157" s="21"/>
+      <c r="B157" s="17"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6149,16 +6326,18 @@
     <hyperlink ref="C65" r:id="rId30" xr:uid="{51FE49D4-B4A3-4BBE-91AA-5136CD06150A}"/>
     <hyperlink ref="C66" r:id="rId31" xr:uid="{F58C5564-808A-4C22-BC6C-1A0E62D4C3D6}"/>
     <hyperlink ref="C67" r:id="rId32" xr:uid="{6B038583-AEE8-41C2-9A62-61AE35836E64}"/>
+    <hyperlink ref="C68" r:id="rId33" xr:uid="{43BCC901-6230-4F2C-95C4-D43663B40E1E}"/>
+    <hyperlink ref="C69" r:id="rId34" xr:uid="{05F2C80D-0F9D-4045-B690-63CF48883D70}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId33"/>
-  <drawing r:id="rId34"/>
-  <legacyDrawing r:id="rId35"/>
+  <pageSetup orientation="portrait" r:id="rId35"/>
+  <drawing r:id="rId36"/>
+  <legacyDrawing r:id="rId37"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1025">
-          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId36">
+          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId38">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6182,8 +6361,8 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1026" r:id="rId37">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId38">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1026" r:id="rId39">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId40">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6202,13 +6381,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1026" r:id="rId37"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1026" r:id="rId39"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="1027">
-          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId39">
+          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId41">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6232,8 +6411,8 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1028" r:id="rId40">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId41">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1028" r:id="rId42">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId43">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6252,13 +6431,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1028" r:id="rId40"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1028" r:id="rId42"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId42">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId43">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId44">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId45">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6277,13 +6456,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId42"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId44"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1030" r:id="rId44">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId45">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1030" r:id="rId46">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId47">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6302,13 +6481,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1030" r:id="rId44"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1030" r:id="rId46"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1031" r:id="rId46">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId47">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1031" r:id="rId48">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId49">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6327,13 +6506,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1031" r:id="rId46"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1031" r:id="rId48"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1032" r:id="rId48">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId49">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1032" r:id="rId50">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId51">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6352,13 +6531,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1032" r:id="rId48"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1032" r:id="rId50"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1033" r:id="rId50">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId51">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1033" r:id="rId52">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId53">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6377,13 +6556,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1033" r:id="rId50"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1033" r:id="rId52"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1034" r:id="rId52">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId53">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1034" r:id="rId54">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId55">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6402,13 +6581,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1034" r:id="rId52"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1034" r:id="rId54"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId54">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId55">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId56">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId57">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6427,13 +6606,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId54"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId56"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1036" r:id="rId56">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId57">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1036" r:id="rId58">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId59">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6452,13 +6631,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1036" r:id="rId56"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1036" r:id="rId58"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1037" r:id="rId58">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId59">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1037" r:id="rId60">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId61">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6477,13 +6656,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1037" r:id="rId58"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1037" r:id="rId60"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1038" r:id="rId60">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId61">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1038" r:id="rId62">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId63">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6502,13 +6681,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1038" r:id="rId60"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1038" r:id="rId62"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1039" r:id="rId62">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId63">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1039" r:id="rId64">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId65">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6527,13 +6706,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1039" r:id="rId62"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1039" r:id="rId64"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1040" r:id="rId64">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId65">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1040" r:id="rId66">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId67">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6552,13 +6731,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1040" r:id="rId64"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1040" r:id="rId66"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1041" r:id="rId66">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId67">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1041" r:id="rId68">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId69">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6577,13 +6756,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1041" r:id="rId66"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1041" r:id="rId68"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1042" r:id="rId68">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId69">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1042" r:id="rId70">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId71">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6602,13 +6781,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1042" r:id="rId68"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1042" r:id="rId70"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1043" r:id="rId70">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId71">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1043" r:id="rId72">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId73">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6627,13 +6806,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1043" r:id="rId70"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1043" r:id="rId72"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1044" r:id="rId72">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId73">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1044" r:id="rId74">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId75">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6652,13 +6831,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1044" r:id="rId72"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1044" r:id="rId74"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1045" r:id="rId74">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId75">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1045" r:id="rId76">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId77">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6677,13 +6856,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1045" r:id="rId74"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1045" r:id="rId76"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1046" r:id="rId76">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId77">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1046" r:id="rId78">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId79">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6702,13 +6881,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1046" r:id="rId76"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1046" r:id="rId78"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1047" r:id="rId78">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId79">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1047" r:id="rId80">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6727,13 +6906,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1047" r:id="rId78"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1047" r:id="rId80"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1048" r:id="rId80">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId81">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1048" r:id="rId82">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId83">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6752,13 +6931,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1048" r:id="rId80"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1048" r:id="rId82"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1049" r:id="rId82">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId83">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1049" r:id="rId84">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId85">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6777,13 +6956,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1049" r:id="rId82"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1049" r:id="rId84"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1050" r:id="rId84">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId85">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1050" r:id="rId86">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId87">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6802,13 +6981,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1050" r:id="rId84"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1050" r:id="rId86"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1051" r:id="rId86">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId87">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1051" r:id="rId88">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId89">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6827,13 +7006,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1051" r:id="rId86"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1051" r:id="rId88"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="1052" r:id="rId88">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId89">
+        <oleObject progId="Packager Shell Object" shapeId="1052" r:id="rId90">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId91">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6852,13 +7031,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="1052" r:id="rId88"/>
+        <oleObject progId="Packager Shell Object" shapeId="1052" r:id="rId90"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1053" r:id="rId90">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId91">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1053" r:id="rId92">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId93">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6877,13 +7056,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1053" r:id="rId90"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1053" r:id="rId92"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1054" r:id="rId92">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId93">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1054" r:id="rId94">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId95">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6902,13 +7081,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1054" r:id="rId92"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1054" r:id="rId94"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="1055" r:id="rId94">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId95">
+        <oleObject progId="Packager Shell Object" shapeId="1055" r:id="rId96">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId97">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6927,13 +7106,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="1055" r:id="rId94"/>
+        <oleObject progId="Packager Shell Object" shapeId="1055" r:id="rId96"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1056" r:id="rId96">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId97">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1056" r:id="rId98">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId99">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6952,13 +7131,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1056" r:id="rId96"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1056" r:id="rId98"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1059" r:id="rId98">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId99">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1059" r:id="rId100">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId101">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6977,13 +7156,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1059" r:id="rId98"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1059" r:id="rId100"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1060" r:id="rId100">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId101">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1060" r:id="rId102">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId103">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7002,13 +7181,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1060" r:id="rId100"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1060" r:id="rId102"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1061" r:id="rId102">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId103">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1061" r:id="rId104">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId105">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7027,13 +7206,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1061" r:id="rId102"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1061" r:id="rId104"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1062" r:id="rId104">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId105">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1062" r:id="rId106">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId107">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7052,13 +7231,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1062" r:id="rId104"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1062" r:id="rId106"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1063" r:id="rId106">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId107">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1063" r:id="rId108">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId109">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7077,13 +7256,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1063" r:id="rId106"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1063" r:id="rId108"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1064" r:id="rId108">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId109">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1064" r:id="rId110">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId111">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7102,13 +7281,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1064" r:id="rId108"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1064" r:id="rId110"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1065" r:id="rId110">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId111">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1065" r:id="rId112">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId113">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7127,13 +7306,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1065" r:id="rId110"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1065" r:id="rId112"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1066" r:id="rId112">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId113">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1066" r:id="rId114">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId115">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7152,13 +7331,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1066" r:id="rId112"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1066" r:id="rId114"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1067" r:id="rId114">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId115">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1067" r:id="rId116">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId117">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7177,13 +7356,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1067" r:id="rId114"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1067" r:id="rId116"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1068" r:id="rId116">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId117">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1068" r:id="rId118">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId119">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7202,13 +7381,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1068" r:id="rId116"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1068" r:id="rId118"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1069" r:id="rId118">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId119">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1069" r:id="rId120">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId121">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7227,13 +7406,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1069" r:id="rId118"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1069" r:id="rId120"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1070" r:id="rId120">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId121">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1070" r:id="rId122">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId123">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7252,13 +7431,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1070" r:id="rId120"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1070" r:id="rId122"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1071" r:id="rId122">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId123">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1071" r:id="rId124">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId125">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7277,13 +7456,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1071" r:id="rId122"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1071" r:id="rId124"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1072" r:id="rId124">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId125">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1072" r:id="rId126">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId127">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7302,13 +7481,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1072" r:id="rId124"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1072" r:id="rId126"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1073" r:id="rId126">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId127">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1073" r:id="rId128">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId129">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7327,13 +7506,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1073" r:id="rId126"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1073" r:id="rId128"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1074" r:id="rId128">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId129">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1074" r:id="rId130">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId131">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7352,13 +7531,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1074" r:id="rId128"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1074" r:id="rId130"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1075" r:id="rId130">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId131">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1075" r:id="rId132">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId133">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7377,13 +7556,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1075" r:id="rId130"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1075" r:id="rId132"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1076" r:id="rId132">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId133">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1076" r:id="rId134">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId135">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7402,13 +7581,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1076" r:id="rId132"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1076" r:id="rId134"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1077" r:id="rId134">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId135">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1077" r:id="rId136">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId137">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7427,13 +7606,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1077" r:id="rId134"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1077" r:id="rId136"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1078" r:id="rId136">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId137">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1078" r:id="rId138">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId139">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7452,13 +7631,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1078" r:id="rId136"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1078" r:id="rId138"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1079" r:id="rId138">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId139">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1079" r:id="rId140">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId141">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7477,13 +7656,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1079" r:id="rId138"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1079" r:id="rId140"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1080" r:id="rId140">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId141">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1080" r:id="rId142">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId143">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7502,13 +7681,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1080" r:id="rId140"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1080" r:id="rId142"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1081" r:id="rId142">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId143">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1081" r:id="rId144">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId145">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7527,13 +7706,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1081" r:id="rId142"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1081" r:id="rId144"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1082" r:id="rId144">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId145">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1082" r:id="rId146">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId147">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7552,13 +7731,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1082" r:id="rId144"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1082" r:id="rId146"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1083" r:id="rId146">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId147">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1083" r:id="rId148">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId149">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7577,13 +7756,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1083" r:id="rId146"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1083" r:id="rId148"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1084" r:id="rId148">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId149">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1084" r:id="rId150">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId151">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7602,13 +7781,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1084" r:id="rId148"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1084" r:id="rId150"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1085" r:id="rId150">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId151">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1085" r:id="rId152">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId153">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7627,13 +7806,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1085" r:id="rId150"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1085" r:id="rId152"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1086" r:id="rId152">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId153">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1086" r:id="rId154">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId155">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7652,13 +7831,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1086" r:id="rId152"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1086" r:id="rId154"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1087" r:id="rId154">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId155">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1087" r:id="rId156">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId157">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7677,7 +7856,57 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1087" r:id="rId154"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1087" r:id="rId156"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1088" r:id="rId158">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId159">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>67</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>2333625</xdr:colOff>
+                <xdr:row>67</xdr:row>
+                <xdr:rowOff>361950</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1088" r:id="rId158"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1089" r:id="rId160">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId161">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>68</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>904875</xdr:colOff>
+                <xdr:row>68</xdr:row>
+                <xdr:rowOff>342900</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1089" r:id="rId160"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/coding-diary.xlsx
+++ b/coding-diary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\decoder\Desktop\Files\coding-ques-diary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA97D2DF-8A6C-44DF-8735-31F0A41202B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC73DAE5-DAE7-4962-ADAF-B73799DABCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF84B1F4-3D67-403B-A5D0-63669E60A1CF}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="165">
   <si>
     <t>Topic Name</t>
   </si>
@@ -511,6 +511,54 @@
   </si>
   <si>
     <t>https://practice.geeksforgeeks.org/problems/binary-tree-to-dll/1</t>
+  </si>
+  <si>
+    <t>Count Leaves in Binary Tree</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/count-leaves-in-binary-tree/1</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/balanced-binary-tree/description/</t>
+  </si>
+  <si>
+    <t>Balanced Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/populating-next-right-pointers-in-each-node/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/symmetric-tree/</t>
+  </si>
+  <si>
+    <t>Symmetric Tree</t>
+  </si>
+  <si>
+    <t>Populating Next Right Pointers in Each Node</t>
+  </si>
+  <si>
+    <t>Bottom View of Binary Tree</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/bottom-view-of-binary-tree/1</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree/description/</t>
+  </si>
+  <si>
+    <t>Vertical Order Traversal of a Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-maximum-path-sum/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/serialize-and-deserialize-binary-tree/description/</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Tree</t>
   </si>
 </sst>
 </file>
@@ -4096,15 +4144,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>646579</xdr:colOff>
+          <xdr:colOff>647700</xdr:colOff>
           <xdr:row>67</xdr:row>
-          <xdr:rowOff>45384</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>2330823</xdr:colOff>
+          <xdr:colOff>2333625</xdr:colOff>
           <xdr:row>67</xdr:row>
-          <xdr:rowOff>358134</xdr:rowOff>
+          <xdr:rowOff>361950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4114,7 +4162,117 @@
                   <a14:compatExt spid="_x0000_s1088"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9462BCC-8BDF-C55E-3725-6FB4DC35F0C3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>904875</xdr:colOff>
+          <xdr:row>68</xdr:row>
+          <xdr:rowOff>342900</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1089" name="Object 65" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1089"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>926726</xdr:colOff>
+          <xdr:row>69</xdr:row>
+          <xdr:rowOff>37541</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>2135863</xdr:colOff>
+          <xdr:row>69</xdr:row>
+          <xdr:rowOff>358588</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1090" name="Object 66" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1090"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB847485-A111-DC67-28F3-A63E0D5E619C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4164,25 +4322,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>41461</xdr:colOff>
-          <xdr:row>68</xdr:row>
-          <xdr:rowOff>24653</xdr:rowOff>
+          <xdr:colOff>52668</xdr:colOff>
+          <xdr:row>70</xdr:row>
+          <xdr:rowOff>16809</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>906612</xdr:colOff>
-          <xdr:row>68</xdr:row>
-          <xdr:rowOff>347382</xdr:rowOff>
+          <xdr:colOff>1098177</xdr:colOff>
+          <xdr:row>70</xdr:row>
+          <xdr:rowOff>370415</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1089" name="Object 65" hidden="1">
+            <xdr:cNvPr id="1091" name="Object 67" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1089"/>
+                  <a14:compatExt spid="_x0000_s1091"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE6300F3-3D15-3968-FC84-320F3BE60C5E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1989A1E9-43D1-DFFB-E7E0-39CDEC733DB6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4549,8 +4707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE692840-0C23-403C-BBE5-6083C01D5791}">
   <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -5750,6 +5908,9 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="B69" s="17" t="s">
         <v>147</v>
       </c>
@@ -5765,50 +5926,116 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="17"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="12"/>
+      <c r="A70" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D70" s="10">
+        <v>45216</v>
+      </c>
       <c r="E70" s="15"/>
-    </row>
-    <row r="71" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="17"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="15"/>
+      <c r="F70" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="27" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="D71" s="25">
+        <v>45216</v>
+      </c>
+      <c r="E71" s="26"/>
+      <c r="F71" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="72" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="17"/>
-      <c r="C72" s="9"/>
+      <c r="A72" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>154</v>
+      </c>
       <c r="D72" s="12"/>
       <c r="E72" s="15"/>
     </row>
     <row r="73" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="17"/>
-      <c r="C73" s="9"/>
+      <c r="A73" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>153</v>
+      </c>
       <c r="D73" s="12"/>
       <c r="E73" s="15"/>
     </row>
     <row r="74" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="17"/>
-      <c r="C74" s="9"/>
+      <c r="A74" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>158</v>
+      </c>
       <c r="D74" s="12"/>
       <c r="E74" s="15"/>
     </row>
     <row r="75" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="17"/>
-      <c r="C75" s="9"/>
+      <c r="A75" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>159</v>
+      </c>
       <c r="D75" s="12"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="17"/>
-      <c r="C76" s="9"/>
+      <c r="A76" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>162</v>
+      </c>
       <c r="D76" s="12"/>
       <c r="E76" s="15"/>
     </row>
     <row r="77" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="17"/>
-      <c r="C77" s="9"/>
+      <c r="A77" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>163</v>
+      </c>
       <c r="D77" s="12"/>
       <c r="E77" s="15"/>
     </row>
@@ -6328,16 +6555,24 @@
     <hyperlink ref="C67" r:id="rId32" xr:uid="{6B038583-AEE8-41C2-9A62-61AE35836E64}"/>
     <hyperlink ref="C68" r:id="rId33" xr:uid="{43BCC901-6230-4F2C-95C4-D43663B40E1E}"/>
     <hyperlink ref="C69" r:id="rId34" xr:uid="{05F2C80D-0F9D-4045-B690-63CF48883D70}"/>
+    <hyperlink ref="C70" r:id="rId35" xr:uid="{4A763131-4B4A-49DC-8429-A59651CC5FA1}"/>
+    <hyperlink ref="C71" r:id="rId36" xr:uid="{1C218845-F075-40A1-ACE2-62B3B228F785}"/>
+    <hyperlink ref="C73" r:id="rId37" xr:uid="{79D35675-10E0-4ECE-84CD-332B482256AD}"/>
+    <hyperlink ref="C72" r:id="rId38" xr:uid="{76EEDE7B-5B2B-4678-A854-08DE94FC0922}"/>
+    <hyperlink ref="C74" r:id="rId39" xr:uid="{E6EEB659-E2A8-46DE-97B8-F05D4A515854}"/>
+    <hyperlink ref="C75" r:id="rId40" xr:uid="{AA7E73C2-1298-4D7A-B570-0CDBDA7284B1}"/>
+    <hyperlink ref="C76" r:id="rId41" xr:uid="{FBC73C8D-0468-4126-98C5-3FDEC62B9903}"/>
+    <hyperlink ref="C77" r:id="rId42" xr:uid="{DA97F34A-CEE8-4466-BCA8-4DDABE266687}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId35"/>
-  <drawing r:id="rId36"/>
-  <legacyDrawing r:id="rId37"/>
+  <pageSetup orientation="portrait" r:id="rId43"/>
+  <drawing r:id="rId44"/>
+  <legacyDrawing r:id="rId45"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1025">
-          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId38">
+          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId46">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6361,8 +6596,8 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1026" r:id="rId39">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId40">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1026" r:id="rId47">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId48">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6381,13 +6616,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1026" r:id="rId39"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1026" r:id="rId47"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject dvAspect="DVASPECT_ICON" link="[2]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="1027">
-          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId41">
+          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId49">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6411,8 +6646,8 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1028" r:id="rId42">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId43">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1028" r:id="rId50">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId51">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6431,13 +6666,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1028" r:id="rId42"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1028" r:id="rId50"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId44">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId45">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId52">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId53">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6456,13 +6691,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId44"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1029" r:id="rId52"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1030" r:id="rId46">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId47">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1030" r:id="rId54">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId55">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6481,13 +6716,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1030" r:id="rId46"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1030" r:id="rId54"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1031" r:id="rId48">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId49">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1031" r:id="rId56">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId57">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6506,13 +6741,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1031" r:id="rId48"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1031" r:id="rId56"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1032" r:id="rId50">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId51">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1032" r:id="rId58">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId59">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6531,13 +6766,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1032" r:id="rId50"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1032" r:id="rId58"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1033" r:id="rId52">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId53">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1033" r:id="rId60">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId61">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6556,13 +6791,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1033" r:id="rId52"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1033" r:id="rId60"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1034" r:id="rId54">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId55">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1034" r:id="rId62">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId63">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6581,13 +6816,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1034" r:id="rId54"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1034" r:id="rId62"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId56">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId57">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId64">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId65">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6606,13 +6841,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId56"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1035" r:id="rId64"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1036" r:id="rId58">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId59">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1036" r:id="rId66">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId67">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6631,13 +6866,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1036" r:id="rId58"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1036" r:id="rId66"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1037" r:id="rId60">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId61">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1037" r:id="rId68">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId69">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6656,13 +6891,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1037" r:id="rId60"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1037" r:id="rId68"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1038" r:id="rId62">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId63">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1038" r:id="rId70">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId71">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6681,13 +6916,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1038" r:id="rId62"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1038" r:id="rId70"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1039" r:id="rId64">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId65">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1039" r:id="rId72">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId73">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6706,13 +6941,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1039" r:id="rId64"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1039" r:id="rId72"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1040" r:id="rId66">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId67">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1040" r:id="rId74">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId75">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6731,13 +6966,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1040" r:id="rId66"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1040" r:id="rId74"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1041" r:id="rId68">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId69">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1041" r:id="rId76">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId77">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6756,13 +6991,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1041" r:id="rId68"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1041" r:id="rId76"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1042" r:id="rId70">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId71">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1042" r:id="rId78">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId79">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6781,13 +7016,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1042" r:id="rId70"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1042" r:id="rId78"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1043" r:id="rId72">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId73">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1043" r:id="rId80">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId81">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6806,13 +7041,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1043" r:id="rId72"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1043" r:id="rId80"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1044" r:id="rId74">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId75">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1044" r:id="rId82">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId83">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6831,13 +7066,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1044" r:id="rId74"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1044" r:id="rId82"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1045" r:id="rId76">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId77">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1045" r:id="rId84">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId85">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6856,13 +7091,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1045" r:id="rId76"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1045" r:id="rId84"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1046" r:id="rId78">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId79">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1046" r:id="rId86">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId87">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6881,13 +7116,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1046" r:id="rId78"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1046" r:id="rId86"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1047" r:id="rId80">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId81">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1047" r:id="rId88">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId89">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6906,13 +7141,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1047" r:id="rId80"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1047" r:id="rId88"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1048" r:id="rId82">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId83">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1048" r:id="rId90">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId91">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6931,13 +7166,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1048" r:id="rId82"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1048" r:id="rId90"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1049" r:id="rId84">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId85">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1049" r:id="rId92">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId93">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6956,13 +7191,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1049" r:id="rId84"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1049" r:id="rId92"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1050" r:id="rId86">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId87">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1050" r:id="rId94">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId95">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -6981,13 +7216,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1050" r:id="rId86"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1050" r:id="rId94"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1051" r:id="rId88">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId89">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1051" r:id="rId96">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId97">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7006,13 +7241,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1051" r:id="rId88"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1051" r:id="rId96"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="1052" r:id="rId90">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId91">
+        <oleObject progId="Packager Shell Object" shapeId="1052" r:id="rId98">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId99">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7031,13 +7266,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="1052" r:id="rId90"/>
+        <oleObject progId="Packager Shell Object" shapeId="1052" r:id="rId98"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1053" r:id="rId92">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId93">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1053" r:id="rId100">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId101">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7056,13 +7291,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1053" r:id="rId92"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1053" r:id="rId100"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1054" r:id="rId94">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId95">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1054" r:id="rId102">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId103">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7081,13 +7316,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1054" r:id="rId94"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1054" r:id="rId102"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" shapeId="1055" r:id="rId96">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId97">
+        <oleObject progId="Packager Shell Object" shapeId="1055" r:id="rId104">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId105">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7106,13 +7341,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" shapeId="1055" r:id="rId96"/>
+        <oleObject progId="Packager Shell Object" shapeId="1055" r:id="rId104"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1056" r:id="rId98">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId99">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1056" r:id="rId106">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId107">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7131,13 +7366,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1056" r:id="rId98"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1056" r:id="rId106"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1059" r:id="rId100">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId101">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1059" r:id="rId108">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId109">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7156,13 +7391,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1059" r:id="rId100"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1059" r:id="rId108"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1060" r:id="rId102">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId103">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1060" r:id="rId110">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId111">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7181,13 +7416,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1060" r:id="rId102"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1060" r:id="rId110"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1061" r:id="rId104">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId105">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1061" r:id="rId112">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId113">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7206,13 +7441,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1061" r:id="rId104"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1061" r:id="rId112"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1062" r:id="rId106">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId107">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1062" r:id="rId114">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId115">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7231,13 +7466,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1062" r:id="rId106"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1062" r:id="rId114"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1063" r:id="rId108">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId109">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1063" r:id="rId116">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId117">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7256,13 +7491,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1063" r:id="rId108"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1063" r:id="rId116"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1064" r:id="rId110">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId111">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1064" r:id="rId118">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId119">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7281,13 +7516,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1064" r:id="rId110"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1064" r:id="rId118"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1065" r:id="rId112">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId113">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1065" r:id="rId120">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId121">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7306,13 +7541,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1065" r:id="rId112"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1065" r:id="rId120"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1066" r:id="rId114">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId115">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1066" r:id="rId122">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId123">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7331,13 +7566,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1066" r:id="rId114"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1066" r:id="rId122"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1067" r:id="rId116">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId117">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1067" r:id="rId124">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId125">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7356,13 +7591,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1067" r:id="rId116"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1067" r:id="rId124"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1068" r:id="rId118">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId119">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1068" r:id="rId126">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId127">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7381,13 +7616,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1068" r:id="rId118"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1068" r:id="rId126"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1069" r:id="rId120">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId121">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1069" r:id="rId128">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId129">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7406,13 +7641,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1069" r:id="rId120"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1069" r:id="rId128"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1070" r:id="rId122">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId123">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1070" r:id="rId130">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId131">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7431,13 +7666,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1070" r:id="rId122"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1070" r:id="rId130"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1071" r:id="rId124">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId125">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1071" r:id="rId132">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId133">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7456,13 +7691,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1071" r:id="rId124"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1071" r:id="rId132"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1072" r:id="rId126">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId127">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1072" r:id="rId134">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId135">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7481,13 +7716,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1072" r:id="rId126"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1072" r:id="rId134"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1073" r:id="rId128">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId129">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1073" r:id="rId136">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId137">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7506,13 +7741,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1073" r:id="rId128"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1073" r:id="rId136"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1074" r:id="rId130">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId131">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1074" r:id="rId138">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId139">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7531,13 +7766,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1074" r:id="rId130"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1074" r:id="rId138"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1075" r:id="rId132">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId133">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1075" r:id="rId140">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId141">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7556,13 +7791,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1075" r:id="rId132"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1075" r:id="rId140"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1076" r:id="rId134">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId135">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1076" r:id="rId142">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId143">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7581,13 +7816,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1076" r:id="rId134"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1076" r:id="rId142"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1077" r:id="rId136">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId137">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1077" r:id="rId144">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId145">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7606,13 +7841,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1077" r:id="rId136"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1077" r:id="rId144"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1078" r:id="rId138">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId139">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1078" r:id="rId146">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId147">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7631,13 +7866,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1078" r:id="rId138"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1078" r:id="rId146"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1079" r:id="rId140">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId141">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1079" r:id="rId148">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId149">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7656,13 +7891,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1079" r:id="rId140"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1079" r:id="rId148"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1080" r:id="rId142">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId143">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1080" r:id="rId150">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId151">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7681,13 +7916,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1080" r:id="rId142"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1080" r:id="rId150"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1081" r:id="rId144">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId145">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1081" r:id="rId152">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId153">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7706,13 +7941,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1081" r:id="rId144"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1081" r:id="rId152"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1082" r:id="rId146">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId147">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1082" r:id="rId154">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId155">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7731,13 +7966,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1082" r:id="rId146"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1082" r:id="rId154"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1083" r:id="rId148">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId149">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1083" r:id="rId156">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId157">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7756,13 +7991,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1083" r:id="rId148"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1083" r:id="rId156"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1084" r:id="rId150">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId151">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1084" r:id="rId158">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId159">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7781,13 +8016,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1084" r:id="rId150"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1084" r:id="rId158"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1085" r:id="rId152">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId153">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1085" r:id="rId160">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId161">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7806,13 +8041,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1085" r:id="rId152"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1085" r:id="rId160"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1086" r:id="rId154">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId155">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1086" r:id="rId162">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId163">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7831,13 +8066,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1086" r:id="rId154"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1086" r:id="rId162"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1087" r:id="rId156">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId157">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1087" r:id="rId164">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId165">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7856,13 +8091,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1087" r:id="rId156"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1087" r:id="rId164"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1088" r:id="rId158">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId159">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1088" r:id="rId166">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId167">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7881,13 +8116,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1088" r:id="rId158"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1088" r:id="rId166"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1089" r:id="rId160">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId161">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1089" r:id="rId168">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId169">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -7906,7 +8141,57 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1089" r:id="rId160"/>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1089" r:id="rId168"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1090" r:id="rId170">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId171">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>923925</xdr:colOff>
+                <xdr:row>69</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>2133600</xdr:colOff>
+                <xdr:row>69</xdr:row>
+                <xdr:rowOff>361950</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1090" r:id="rId170"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1091" r:id="rId172">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId173">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>70</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1095375</xdr:colOff>
+                <xdr:row>70</xdr:row>
+                <xdr:rowOff>371475</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Packager Shell Object" dvAspect="DVASPECT_ICON" shapeId="1091" r:id="rId172"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
